--- a/biology/Médecine/Hôpital_de_la_Floride/Hôpital_de_la_Floride.xlsx
+++ b/biology/Médecine/Hôpital_de_la_Floride/Hôpital_de_la_Floride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Floride</t>
+          <t>Hôpital_de_la_Floride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital de la Floride (en anglais, Florida Hospital) comprend un ensemble de vingt-cinq hôpitaux : sept hôpitaux dans la région d’Orlando et dix-huit autres dans le reste de la Floride. Il est géré par l'Adventist Health System (le système de santé adventiste) de la Floride, appartenant à l'Église adventiste du septième jour – le plus grand système de santé protestant à but non lucratif aux États-Unis. L'hôpital principal est situé à Orlando[1].
-L'hôpital de la Floride comprend aussi Centra Care, soit trente-trois centres de soins à travers la Floride[2].
+L'hôpital de la Floride (en anglais, Florida Hospital) comprend un ensemble de vingt-cinq hôpitaux : sept hôpitaux dans la région d’Orlando et dix-huit autres dans le reste de la Floride. Il est géré par l'Adventist Health System (le système de santé adventiste) de la Floride, appartenant à l'Église adventiste du septième jour – le plus grand système de santé protestant à but non lucratif aux États-Unis. L'hôpital principal est situé à Orlando.
+L'hôpital de la Floride comprend aussi Centra Care, soit trente-trois centres de soins à travers la Floride.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Floride</t>
+          <t>Hôpital_de_la_Floride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de la Floride démarra en 1908. Une petite communauté rassembla plus de 9000 dollars pour acheter un hôpital de vingt lits près du lac Estelle à Orlando. Depuis, l'hôpital de la Floride s'est beaucoup développé. Il comprend aujourd'hui sept hôpitaux dans la région d’Orlando totalisant plus de 2400 lits. À lui seul, celui d'Orlando contient 1393 lits[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de la Floride démarra en 1908. Une petite communauté rassembla plus de 9000 dollars pour acheter un hôpital de vingt lits près du lac Estelle à Orlando. Depuis, l'hôpital de la Floride s'est beaucoup développé. Il comprend aujourd'hui sept hôpitaux dans la région d’Orlando totalisant plus de 2400 lits. À lui seul, celui d'Orlando contient 1393 lits.
 L’hôpital de la Floride est affilié à l’Université adventiste des sciences sanitaires, situé sur le site d’Orlando. 
-En 2010, le gouverneur de la Floride décerna à l'hôpital de la Floride le prestigieux prix Sterling d'excellence[4].  
+En 2010, le gouverneur de la Floride décerna à l'hôpital de la Floride le prestigieux prix Sterling d'excellence.  
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Floride</t>
+          <t>Hôpital_de_la_Floride</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +560,90 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'hôpital de la Floride est équipé d'une excellente technologie médicale. Il contient des instituts reconnus sur le cancer, la cardiologie, le diabète, l'orthopédie et la neuroscience. Il dispose d'un service d'urgence[6].
-Hôpitaux dans la région d’Orlando
-Hôpital de la Floride – Orlando
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de la Floride est équipé d'une excellente technologie médicale. Il contient des instituts reconnus sur le cancer, la cardiologie, le diabète, l'orthopédie et la neuroscience. Il dispose d'un service d'urgence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_de_la_Floride</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_la_Floride</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hôpitaux dans la région d’Orlando</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hôpital de la Floride – Orlando
 Hôpital de la Floride – Altamonte
 Hôpital de la Floride – Apopka
 Hôpital de la Floride – Célébration de la santé, à Celebration
 Hôpital de la Floride – Orlando Est
 Hôpital de la Floride – Kissimmee
-Hôpital-mémorial – Winter Park
-Hôpitaux dans le reste de la Floride
-Hôpital de la Floride – Carrollwood
+Hôpital-mémorial – Winter Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_la_Floride</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_la_Floride</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hôpitaux dans le reste de la Floride</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hôpital de la Floride – Carrollwood
 Hôpital de la Floride pour les enfants, à Orlando
 Hôpital de la Floride – DeLand
 Hôpital de la Floride – Fish Memorial
